--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Bmp10-Bmpr2.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Bmp10</t>
+  </si>
+  <si>
+    <t>Bmpr2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp10</t>
-  </si>
-  <si>
-    <t>Bmpr2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H2">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J2">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N2">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O2">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P2">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q2">
-        <v>17.54851086170233</v>
+        <v>16.60321720682067</v>
       </c>
       <c r="R2">
-        <v>105.291065170214</v>
+        <v>99.619303240924</v>
       </c>
       <c r="S2">
-        <v>0.1537093141107487</v>
+        <v>0.1662183875557835</v>
       </c>
       <c r="T2">
-        <v>0.1203595485324057</v>
+        <v>0.131498941185531</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H3">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J3">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>24.489942</v>
       </c>
       <c r="N3">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O3">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P3">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q3">
-        <v>8.973939243514002</v>
+        <v>8.999204700344</v>
       </c>
       <c r="R3">
-        <v>80.76545319162601</v>
+        <v>80.99284230309601</v>
       </c>
       <c r="S3">
-        <v>0.07860370927554924</v>
+        <v>0.09009297872469639</v>
       </c>
       <c r="T3">
-        <v>0.09232401122967471</v>
+        <v>0.1069117395923379</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H4">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J4">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N4">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O4">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P4">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q4">
-        <v>7.557895424938446</v>
+        <v>7.626868299011999</v>
       </c>
       <c r="R4">
-        <v>68.021058824446</v>
+        <v>68.64181469110798</v>
       </c>
       <c r="S4">
-        <v>0.06620042754872016</v>
+        <v>0.07635422309847931</v>
       </c>
       <c r="T4">
-        <v>0.07775573281143482</v>
+        <v>0.09060820201788035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H5">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J5">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N5">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O5">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P5">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q5">
-        <v>11.7418950649875</v>
+        <v>9.666893804327332</v>
       </c>
       <c r="R5">
-        <v>70.451370389925</v>
+        <v>58.00136282596399</v>
       </c>
       <c r="S5">
-        <v>0.1028485351847417</v>
+        <v>0.0967773583163266</v>
       </c>
       <c r="T5">
-        <v>0.08053385270547578</v>
+        <v>0.07656264951468594</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H6">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J6">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N6">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O6">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P6">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q6">
-        <v>11.87368910150423</v>
+        <v>6.373588705864889</v>
       </c>
       <c r="R6">
-        <v>106.863201913538</v>
+        <v>57.362298352784</v>
       </c>
       <c r="S6">
-        <v>0.1040029334762277</v>
+        <v>0.06380737085083762</v>
       </c>
       <c r="T6">
-        <v>0.1221566779312943</v>
+        <v>0.07571907503826925</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.3664336666666667</v>
+        <v>0.3674653333333333</v>
       </c>
       <c r="H7">
-        <v>1.099301</v>
+        <v>1.102396</v>
       </c>
       <c r="I7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719676</v>
       </c>
       <c r="J7">
-        <v>0.575459875412239</v>
+        <v>0.5572612813719677</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N7">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O7">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P7">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q7">
-        <v>8.002521516723222</v>
+        <v>6.393925094830666</v>
       </c>
       <c r="R7">
-        <v>72.022693650509</v>
+        <v>57.54532585347599</v>
       </c>
       <c r="S7">
-        <v>0.07009495581625154</v>
+        <v>0.06401096282584413</v>
       </c>
       <c r="T7">
-        <v>0.08233005220195366</v>
+        <v>0.07596067402326338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H8">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I8">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J8">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.890007</v>
+        <v>45.1830845</v>
       </c>
       <c r="N8">
-        <v>95.78001399999999</v>
+        <v>90.366169</v>
       </c>
       <c r="O8">
-        <v>0.2671069186198896</v>
+        <v>0.2982772948921854</v>
       </c>
       <c r="P8">
-        <v>0.2091536763465643</v>
+        <v>0.2359735829156887</v>
       </c>
       <c r="Q8">
-        <v>12.946249262331</v>
+        <v>13.19109609257783</v>
       </c>
       <c r="R8">
-        <v>77.67749557398599</v>
+        <v>79.14657655546701</v>
       </c>
       <c r="S8">
-        <v>0.1133976045091409</v>
+        <v>0.1320589073364019</v>
       </c>
       <c r="T8">
-        <v>0.08879412781415869</v>
+        <v>0.1044746417301578</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H9">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I9">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J9">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>24.489942</v>
       </c>
       <c r="N9">
-        <v>73.469826</v>
+        <v>73.46982600000001</v>
       </c>
       <c r="O9">
-        <v>0.136592858397365</v>
+        <v>0.1616709822417395</v>
       </c>
       <c r="P9">
-        <v>0.1604351844054063</v>
+        <v>0.1918520865636367</v>
       </c>
       <c r="Q9">
-        <v>6.620439490686</v>
+        <v>7.149781423702001</v>
       </c>
       <c r="R9">
-        <v>59.583955416174</v>
+        <v>64.34803281331801</v>
       </c>
       <c r="S9">
-        <v>0.05798914912181572</v>
+        <v>0.07157800351704312</v>
       </c>
       <c r="T9">
-        <v>0.06811117317573162</v>
+        <v>0.08494034697129887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H10">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I10">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J10">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.62554866666667</v>
+        <v>20.755341</v>
       </c>
       <c r="N10">
-        <v>61.876646</v>
+        <v>62.26602299999999</v>
       </c>
       <c r="O10">
-        <v>0.1150391719340928</v>
+        <v>0.1370169176485697</v>
       </c>
       <c r="P10">
-        <v>0.1351192952518772</v>
+        <v>0.1625955454769879</v>
       </c>
       <c r="Q10">
-        <v>5.575766447706</v>
+        <v>6.059473375820999</v>
       </c>
       <c r="R10">
-        <v>50.181898029354</v>
+        <v>54.53526038238899</v>
       </c>
       <c r="S10">
-        <v>0.04883874438537261</v>
+        <v>0.06066269455009037</v>
       </c>
       <c r="T10">
-        <v>0.05736356244044244</v>
+        <v>0.07198734345910761</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H11">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I11">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J11">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.0437125</v>
+        <v>26.3069545</v>
       </c>
       <c r="N11">
-        <v>64.087425</v>
+        <v>52.613909</v>
       </c>
       <c r="O11">
-        <v>0.1787240771757799</v>
+        <v>0.173666037012409</v>
       </c>
       <c r="P11">
-        <v>0.1399469470356803</v>
+        <v>0.1373909368441856</v>
       </c>
       <c r="Q11">
-        <v>8.662472931262499</v>
+        <v>7.680253983381166</v>
       </c>
       <c r="R11">
-        <v>51.974837587575</v>
+        <v>46.081523900287</v>
       </c>
       <c r="S11">
-        <v>0.07587554199103821</v>
+        <v>0.07688867869608239</v>
       </c>
       <c r="T11">
-        <v>0.05941309433020451</v>
+        <v>0.06082828732949964</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H12">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I12">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J12">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>32.40337933333334</v>
+        <v>17.34473466666667</v>
       </c>
       <c r="N12">
-        <v>97.21013800000001</v>
+        <v>52.034204</v>
       </c>
       <c r="O12">
-        <v>0.1807301219771816</v>
+        <v>0.1145017121838161</v>
       </c>
       <c r="P12">
-        <v>0.2122766211002732</v>
+        <v>0.1358771505744131</v>
       </c>
       <c r="Q12">
-        <v>8.759702745318002</v>
+        <v>5.063754814885778</v>
       </c>
       <c r="R12">
-        <v>78.83732470786201</v>
+        <v>45.57379333397201</v>
       </c>
       <c r="S12">
-        <v>0.07672718850095393</v>
+        <v>0.05069434133297851</v>
       </c>
       <c r="T12">
-        <v>0.09011994316897892</v>
+        <v>0.06015807553614387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.270333</v>
+        <v>0.2919476666666667</v>
       </c>
       <c r="H13">
-        <v>0.810999</v>
+        <v>0.875843</v>
       </c>
       <c r="I13">
-        <v>0.424540124587761</v>
+        <v>0.4427387186280323</v>
       </c>
       <c r="J13">
-        <v>0.4245401245877611</v>
+        <v>0.4427387186280324</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.83893633333333</v>
+        <v>17.400077</v>
       </c>
       <c r="N13">
-        <v>65.51680899999999</v>
+        <v>52.200231</v>
       </c>
       <c r="O13">
-        <v>0.1218068518956913</v>
+        <v>0.1148670560212801</v>
       </c>
       <c r="P13">
-        <v>0.1430682758601985</v>
+        <v>0.136310697625088</v>
       </c>
       <c r="Q13">
-        <v>5.903785175798999</v>
+        <v>5.079911879970333</v>
       </c>
       <c r="R13">
-        <v>53.134066582191</v>
+        <v>45.719206919733</v>
       </c>
       <c r="S13">
-        <v>0.05171189607943972</v>
+        <v>0.05085609319543595</v>
       </c>
       <c r="T13">
-        <v>0.06073822365824484</v>
+        <v>0.06035002360182465</v>
       </c>
     </row>
   </sheetData>
